--- a/TestData/LV_TMTT0024858_VerifyNewJobTypeOnJobTypeObjPageLightningView.xlsx
+++ b/TestData/LV_TMTT0024858_VerifyNewJobTypeOnJobTypeObjPageLightningView.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vkumar0427\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{442C6599-728D-4223-8D5A-9939953745EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AE8E2E1-3D2C-4518-8F7E-60C0C4F5CC79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
   <si>
     <t>FA - Portfolio-Auto Struct Prd/Consulting</t>
   </si>
@@ -74,12 +74,6 @@
     <t>6301</t>
   </si>
   <si>
-    <t>Valuation Advisory</t>
-  </si>
-  <si>
-    <t>6311</t>
-  </si>
-  <si>
     <t>CVAS - IP Valuation</t>
   </si>
   <si>
@@ -114,6 +108,24 @@
   </si>
   <si>
     <t>Ajay Nair</t>
+  </si>
+  <si>
+    <t>DRC - Dispute</t>
+  </si>
+  <si>
+    <t>6601</t>
+  </si>
+  <si>
+    <t>DRC - ESOP</t>
+  </si>
+  <si>
+    <t>6391</t>
+  </si>
+  <si>
+    <t>DRC - Estate &amp; Gift</t>
+  </si>
+  <si>
+    <t>5571</t>
   </si>
 </sst>
 </file>
@@ -879,21 +891,21 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -909,19 +921,19 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -937,19 +949,19 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -959,19 +971,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B9DE9B1-D193-42A1-A5D5-A99A375F2944}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -982,7 +994,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -993,7 +1005,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1004,7 +1016,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1015,7 +1027,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1023,10 +1035,10 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1034,10 +1046,10 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1045,17 +1057,39 @@
         <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
         <v>5</v>
       </c>
     </row>
